--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.033121-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.033121-1.xlsx_with_dialog_acts.xlsx
@@ -1159,12 +1159,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2797,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4511,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8813,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9425,12 +9425,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9615,12 +9615,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9691,12 +9691,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9729,12 +9729,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9843,12 +9843,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10033,12 +10033,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10223,12 +10223,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10945,12 +10945,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11059,12 +11059,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11173,12 +11173,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11211,12 +11211,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11287,12 +11287,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11363,12 +11363,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11477,12 +11477,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11629,12 +11629,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11819,12 +11819,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12009,12 +12009,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12127,12 +12127,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12165,12 +12165,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12431,12 +12431,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12507,12 +12507,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12659,12 +12659,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12735,12 +12735,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13077,12 +13077,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13153,12 +13153,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13385,12 +13385,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14069,12 +14069,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14107,12 +14107,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14449,12 +14449,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14487,12 +14487,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14563,12 +14563,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14601,12 +14601,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14677,12 +14677,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14715,12 +14715,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14753,12 +14753,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15251,12 +15251,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15555,12 +15555,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16281,12 +16281,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16623,12 +16623,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16927,12 +16927,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17611,12 +17611,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17763,12 +17763,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18067,12 +18067,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18143,12 +18143,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18941,12 +18941,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19321,12 +19321,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19511,12 +19511,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19701,12 +19701,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20081,12 +20081,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20271,12 +20271,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20385,12 +20385,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20461,12 +20461,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20613,12 +20613,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20651,12 +20651,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
